--- a/ordermodels.xlsx
+++ b/ordermodels.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Santiago\python\Ecommerce\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA1BF4A-5EB5-4EAA-97E5-1DD79C32B5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -148,14 +155,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,7 +181,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="9" tint="-0.5"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -195,157 +196,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="4" tint="-0.25"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,192 +223,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -559,262 +236,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="30" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -827,68 +265,25 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -902,9 +297,15 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Curved Up Arrow 2"/>
+        <xdr:cNvPr id="3" name="Curved Up Arrow 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -934,6 +335,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100">
@@ -959,9 +361,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>113665</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Curved Connector 3"/>
+        <xdr:cNvPr id="4" name="Curved Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1008,9 +416,15 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>154940</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Curved Connector 4"/>
+        <xdr:cNvPr id="5" name="Curved Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1057,9 +471,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>142240</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Curved Connector 5"/>
+        <xdr:cNvPr id="6" name="Curved Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1091,6 +511,55 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>411015</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>29510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D45D33-B8B2-81FB-EF37-1D775A249234}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10317015" cy="6697010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1348,27 +817,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.4285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="39.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37.5" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="37.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1445,7 +914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="1:3">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1453,7 +922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="1:3">
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1461,7 +930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="1:3">
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1469,7 +938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="1:3">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1477,7 +946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="1:3">
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1485,7 +954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="1:3">
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1493,17 +962,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:3">
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:3">
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" ht="30" spans="2:2">
+    <row r="16" spans="1:3" ht="30">
       <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
@@ -1533,7 +1002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" ht="36" customHeight="1" spans="2:2">
+    <row r="25" spans="2:2" ht="36" customHeight="1">
       <c r="B25" s="4" t="s">
         <v>35</v>
       </c>
@@ -1580,7 +1049,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623A81C3-7FF6-4274-9656-E341677D6E6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>